--- a/_6_Queries_&_Results/Exp1/Execution_Times_Cozo_vs_Neo4j_R5.xlsx
+++ b/_6_Queries_&_Results/Exp1/Execution_Times_Cozo_vs_Neo4j_R5.xlsx
@@ -5,22 +5,27 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selsebil\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selsebil\Desktop\Thèse\EXPERIENCES\EXP1 - UPDATED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4548A8-D441-4CF2-8B37-435B2749AED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8B5B88-EA25-4A62-8322-0442F4C8B270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="12" windowWidth="23028" windowHeight="13668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6" yWindow="6" windowWidth="23028" windowHeight="13668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>DS_size</t>
   </si>
@@ -116,9 +121,6 @@
   </si>
   <si>
     <t>2M900K_14M500K</t>
-  </si>
-  <si>
-    <t>3M_17M</t>
   </si>
 </sst>
 </file>
@@ -523,15 +525,15 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.15625" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,334 +544,334 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>955</v>
+        <v>2700</v>
       </c>
       <c r="C2">
-        <v>2092</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>1425</v>
+        <v>3150</v>
       </c>
       <c r="C3">
-        <v>2231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>2059</v>
+        <v>3399</v>
       </c>
       <c r="C4">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>2133</v>
+        <v>4123</v>
       </c>
       <c r="C5">
-        <v>3223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>2903</v>
+        <v>5065</v>
       </c>
       <c r="C6">
-        <v>4165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>3715</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>3692</v>
+        <v>5164</v>
       </c>
       <c r="C7">
-        <v>4840</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>3914</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
-        <v>4492</v>
+        <v>6420</v>
       </c>
       <c r="C8">
-        <v>5520</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>4770</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
-        <v>5214</v>
+        <v>8120</v>
       </c>
       <c r="C9">
-        <v>6824</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>6700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10">
-        <v>5998</v>
+        <v>8480</v>
       </c>
       <c r="C10">
-        <v>7580</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>6830</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11">
-        <v>6884</v>
+        <v>9330</v>
       </c>
       <c r="C11">
-        <v>8430</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>7680</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12">
-        <v>7508</v>
+        <v>9910</v>
       </c>
       <c r="C12">
-        <v>9010</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>8260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13">
-        <v>8750</v>
+        <v>11059</v>
       </c>
       <c r="C13">
-        <v>10160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>9409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14">
-        <v>9355</v>
+        <v>11562</v>
       </c>
       <c r="C14">
-        <v>11102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>10010</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15">
-        <v>10320</v>
+        <v>12410</v>
       </c>
       <c r="C15">
-        <v>11510</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>10760</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16">
-        <v>10960</v>
+        <v>13400</v>
       </c>
       <c r="C16">
-        <v>12500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>11750</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17">
-        <v>11620</v>
+        <v>13820</v>
       </c>
       <c r="C17">
-        <v>12920</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>12170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18">
-        <v>11988</v>
+        <v>14720</v>
       </c>
       <c r="C18">
-        <v>13370</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>12620</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19">
-        <v>12766</v>
+        <v>15450</v>
       </c>
       <c r="C19">
-        <v>14550</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20">
-        <v>13712</v>
+        <v>15840</v>
       </c>
       <c r="C20">
-        <v>14840</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>14190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21">
-        <v>15120</v>
+        <v>17580</v>
       </c>
       <c r="C21">
-        <v>16680</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>15930</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22">
-        <v>15720</v>
+        <v>18540</v>
       </c>
       <c r="C22">
-        <v>17640</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>16890</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23">
-        <v>16992</v>
+        <v>19420</v>
       </c>
       <c r="C23">
-        <v>18320</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>17770</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24">
-        <v>17764</v>
+        <v>20302</v>
       </c>
       <c r="C24">
-        <v>18810</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>18352</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25">
-        <v>18716</v>
+        <v>21600</v>
       </c>
       <c r="C25">
-        <v>20100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>19950</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26">
-        <v>21255</v>
+        <v>21970</v>
       </c>
       <c r="C26">
-        <v>22380</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>20510</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27">
-        <v>22132</v>
+        <v>24580</v>
       </c>
       <c r="C27">
-        <v>22800</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>22930</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28">
-        <v>23105</v>
+        <v>25710</v>
       </c>
       <c r="C28">
-        <v>23990</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>24060</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29">
-        <v>24528</v>
+        <v>26648</v>
       </c>
       <c r="C29">
-        <v>25812</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>24998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30">
-        <v>25496</v>
+        <v>27912</v>
       </c>
       <c r="C30">
-        <v>26550</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>26362</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31">
-        <v>27180</v>
+        <v>29911</v>
       </c>
       <c r="C31">
-        <v>28100</v>
+        <v>28361</v>
       </c>
     </row>
   </sheetData>
